--- a/ex/※마케팅보고.xlsx
+++ b/ex/※마케팅보고.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltjd\ALINE\mysite\ex\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132DC19-A3D8-45F5-8068-A72F3D732E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="간이보고" sheetId="4" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="주간매출상세" sheetId="1" r:id="rId3"/>
     <sheet name="주간전환상세" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>9월</t>
   </si>
@@ -88,10 +82,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>7월 방문 객수 및 전환율</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>기존 상품 기준 피드백</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -100,10 +90,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>결제 금액</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>키워드 추천 및 피드백</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -120,43 +106,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>셀프바 주문제작 네온 이니셜 루미사인 문자조명 LED간판 나래바 무드등 차박소품 개업선물</t>
-  </si>
-  <si>
-    <t>맥주잔 수제맥주 BEER 네온문자 루미사인 주점 창문조명 LED야광 BAR 치킨집 개업</t>
-  </si>
-  <si>
-    <t>네일아트 네일샵 led 조명간판</t>
-  </si>
-  <si>
-    <t>디자인문패</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>전환액</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>8월 방문객수 및 전환율</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>직전대비 매출증액률</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>직전매출 도달률</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>??%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>비교</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -169,10 +126,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">전환율이 좋으므로 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>노출수</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -185,73 +138,22 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>썸네일 변경</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실제 노출이 많으므로 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>해상도가 낮거나 이미지 테두리, 공백이 확인되는 이미지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>피드백 상세</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>카페 커피간판 오픈 개업선물 LED 네온 루미사인</t>
-  </si>
-  <si>
-    <t>상품성 있는 이미지로 수정 필요해보임</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월 지출 광고비</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 필요 광고비</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ㄴtop4 외 항목은 주간광고상세를 참고하세요</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄴworst 4 외 항목은 주간광고상세를 참고하세요</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>매출액 top2 / 매출건 top2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>노출 10% 이내, 클릭수 낮은순</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>마케팅 월간보고</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>관련 상품군 묶음을 추천합니다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>캠핑문패,벽간판,로고간판 키워드는</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업중,현관호수,테이크아웃 키워드는</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>키워드피드백</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -277,10 +179,6 @@
   </si>
   <si>
     <t>검색광고</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>파워링크</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -291,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -482,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -613,34 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -812,32 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -846,19 +690,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -978,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1061,45 +892,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1111,12 +936,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="쉼표 [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="표준 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="표준 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="표준 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 3" xfId="3"/>
+    <cellStyle name="표준 4" xfId="4"/>
+    <cellStyle name="표준 5" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1386,19 +1211,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:V42"/>
+  <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1412,744 +1237,348 @@
     <col min="7" max="7" width="7.625" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B2" s="27"/>
-      <c r="L2" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="31"/>
       <c r="J4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
-        <v>68</v>
+      <c r="I5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="41" t="s">
-        <v>68</v>
+      <c r="E6" s="41"/>
+      <c r="F6" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="33"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="55"/>
-      <c r="L6" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="26">
-        <v>563</v>
-      </c>
-      <c r="N6" s="33">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="O6" s="48">
-        <v>334500</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="56"/>
-      <c r="L7" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="44">
-        <v>563</v>
-      </c>
-      <c r="N7" s="45">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="O7" s="49">
-        <v>334500</v>
-      </c>
-      <c r="P7" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="53"/>
-    </row>
-    <row r="8" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="56"/>
-      <c r="L8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="44">
-        <v>563</v>
-      </c>
-      <c r="N8" s="45">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="O8" s="49">
-        <v>334500</v>
-      </c>
-      <c r="P8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="53"/>
-    </row>
-    <row r="9" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="41"/>
+      <c r="J6" s="49"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="D9" s="25"/>
-      <c r="L9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="25">
-        <v>255948</v>
-      </c>
-      <c r="O9" s="25"/>
-    </row>
-    <row r="10" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="D10" s="25"/>
-      <c r="L10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="34">
-        <v>222596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="P11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="20.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:13" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="66" t="s">
+      <c r="C14" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="36">
-        <v>5229304479</v>
-      </c>
-      <c r="Q14" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="S14" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="U14" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="V14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="68">
-        <v>99000</v>
-      </c>
-      <c r="O15" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="37">
-        <v>1098</v>
-      </c>
-      <c r="R15" s="52">
-        <v>4</v>
-      </c>
-      <c r="S15" s="52">
-        <v>0</v>
-      </c>
-      <c r="V15" s="57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="M15" s="51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="67"/>
-      <c r="V16" s="57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="62"/>
+      <c r="E16" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="61"/>
+      <c r="M16" s="51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="V17" s="57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="O18" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="36">
-        <v>5229304479</v>
-      </c>
-      <c r="Q18" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18" s="66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="68">
-        <v>99000</v>
-      </c>
-      <c r="O19" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="37">
-        <v>1033</v>
-      </c>
-      <c r="R19" s="52">
-        <v>8</v>
-      </c>
-      <c r="S19" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
-      <c r="C20" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="67"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="67"/>
-    </row>
-    <row r="21" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="61"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
-      <c r="C22" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="36">
-        <v>5229304479</v>
-      </c>
-      <c r="Q22" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="R22" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22" s="66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="68">
-        <v>89000</v>
-      </c>
-      <c r="O23" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="37">
-        <v>1033</v>
-      </c>
-      <c r="R23" s="52">
-        <v>8</v>
-      </c>
-      <c r="S23" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="67"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="67"/>
-    </row>
-    <row r="25" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="61"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="O26" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="36">
-        <v>5229304479</v>
-      </c>
-      <c r="Q26" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="R26" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="S26" s="66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="68">
-        <v>80000</v>
-      </c>
-      <c r="O27" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q27" s="37">
-        <v>1683</v>
-      </c>
-      <c r="R27" s="52">
-        <v>11</v>
-      </c>
-      <c r="S27" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="64"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="67"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="P28" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="67"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C28" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="62"/>
+      <c r="E28" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="1:22" ht="26.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="30" spans="1:13" ht="26.25" x14ac:dyDescent="0.5">
       <c r="B30" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
@@ -2157,176 +1586,92 @@
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="V31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="35"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="L32" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="V32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="61"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="62"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="L33" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="V33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="L34" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-    </row>
-    <row r="35" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="35"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="L36" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-    </row>
-    <row r="37" spans="2:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="61"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="L37" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-    </row>
-    <row r="38" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="L38" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-    </row>
-    <row r="39" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L31" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="34"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="M32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="55"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="56"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="M33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+    </row>
+    <row r="35" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="34"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="55"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+    </row>
+    <row r="38" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+    </row>
+    <row r="39" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -2336,72 +1681,35 @@
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="35"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="34"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
-      <c r="L40" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B41" s="61"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="62"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="55"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="56"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
       <c r="K41" s="32"/>
-      <c r="L41" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-    </row>
-    <row r="42" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="65"/>
-      <c r="L42" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="65"/>
+    </row>
+    <row r="42" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2411,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A8A976-6963-451B-9501-33FEC3622A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M1:AU1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2420,12 +1728,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="9" style="73"/>
-    <col min="13" max="17" width="9" style="74"/>
-    <col min="23" max="23" width="9" style="74"/>
-    <col min="34" max="35" width="9" style="75"/>
-    <col min="44" max="47" width="9" style="75"/>
-    <col min="48" max="16384" width="9" style="73"/>
+    <col min="1" max="12" width="9" style="67"/>
+    <col min="13" max="17" width="9" style="68"/>
+    <col min="23" max="23" width="9" style="68"/>
+    <col min="34" max="35" width="9" style="69"/>
+    <col min="44" max="47" width="9" style="69"/>
+    <col min="48" max="16384" width="9" style="67"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2435,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:X101"/>
   <sheetViews>
@@ -3299,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8426F3C8-3305-4A4C-8E47-E137C750BDD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
